--- a/LISTAMOTSSMA.xlsx
+++ b/LISTAMOTSSMA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="197">
   <si>
     <t xml:space="preserve">Nome do Motorista</t>
   </si>
@@ -32,6 +32,585 @@
   </si>
   <si>
     <t xml:space="preserve">Transportadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO MONTEIRO ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barueri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F. M. BENEVIDES JUNIOR TRANSPORTES- ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOVIS DA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOVIS DA COSTA 27753822829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORINDO LOURENCO TARAMELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSAC TRANSPORTE ROD. LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENALDO FRANCISCO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMD TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGELO MARCIO FERREIRA DA CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JINERWIL ALVES DA CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERUS PETRO TRANSPORTES LTDA - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO MOREIRA DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM TRANSPORTES - EIRELI - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIAGO MARTINS BRAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEOVAN MACEDO OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEONARDO JOSE DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOMAS EDISON CANTEIRO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTES CACADO LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS ALBERTO MORAES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JODY TRANSPORTES RODOVIARIOS LTDA ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGOR OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINALDO MARTINS DA CUNHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO NUNES NETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL DA SILVA SENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANDEMEIKE TEIXEIRA BORGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLR LOCACOES E TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIO DOS SANTOS FILHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL MOREIRA FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAZIEL BARBOSA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX MESSIAS DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGO DOS SANTOS PRATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERSIO JACINTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVAN GERALDO DA SILVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGO XAVIER DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANOEL ARAUJO GOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENESIO OLIVEIRA FILHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDILSON APARECIDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTOR HUGO LIMA DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANDERLEI CARLOS BOGAS SARAIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO LUCAS DO CARMO ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIVALDO GOMES MARIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATIMA &amp; CARVALHO TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALISON MIRANDA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL DALBEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAZARO ALEX DA SILVA SALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABEDAL SERVICOS DE TRANSPORTES EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDERSON CARLOS DA SILVA ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAOR DE FREITAS JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANDERLEI DE OLIVEIRA PENTEADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALDECY MARTINS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO ROBERTO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIO JUNIOR SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JONATHAN DE SA OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AELTON ALBINO DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIZ HENRIQUE DIAS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERTO RODRIGUES SOUSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO PEREIRA DA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBSON CESAR GOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSEALDO CORREIA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALTEIR MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE RUBENES EVANGELISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERSON JOSE BRITO BORGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSEMIR MORAIS DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS ZORNEK JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO MARQUES GOULART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVID DE SOUZA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELISEU GIUDICE LOUREIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS EDUARDO ROQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE LAERCIO DIAS DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALCIDES LINS DE MELO NETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDNEY DIAS DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDNALDO FERREIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO ELIAS DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVERTON FRANCISCO DANTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDERSON ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACKSON DA SILVA FONSECA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO DAS CHAGAS SILVA MELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOILSON RODRIGUES SERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEIBSON ANDRADE LICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTAVIO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESSE REIS SIMAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMBERTO LUCENA DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUGLAS BEZERRA DE AZEVEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGELO MARCIO DE JESUS DOREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACKSON ALENCAR CAVALCANTE DE CASTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVALDO CESAR MOREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO TEODORO DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEREMIAS ALEXANDRE DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENATO LUIZ BETTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETTIN TRANSPORTES RODOV LTDA ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS JOSE DE MEDEIROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX SANDRO MAGALHAES SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX SANDRO MAGALHAES SOUZA - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO FERNANDO DE CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMR TRANSPORTES EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIUDEIR RAIMUNDO FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIUDEIR RAIMUNDO FERREIRA ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO AGUIAR PILON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTADORA PILON EXPRESS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRTON CESAR PIZETTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANDERNILSON JOSE DE MATOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL MUSSARELLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSSARELLI TRANSPORTADORA LTDA - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARCISO VALENTIM CAMPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.A.D CAMPOS TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDAIR BASTOS DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVANEI GAMA RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.W.N TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAGNO ALEXANDRE DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ROCHA BUENO TRANSPORTES RODOVIARIOS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LWG TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE LUIZ PRADO ARANTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE LUIZ PRADO ARANTES TRANSPORTES - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEVERTON ZANGROSSI LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIAGO ROCHA LEMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS ANTONIO HEREMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELCI BARCELOS DE ANDRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uberlândia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINILTON LOPES SILVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE MARCELO SILVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALMEIDA ROSA TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EURIPEDES DE ASSIS RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVA E RIBEIRO TRANSP. RODOV. LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILDO CARLOS OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURICIO DE SOUSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDMAR LOURENCO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANILO BARBOSA LEMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALTECIDES JUNIOR CAMARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS JOSE ARAUJO MARTINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANSUAR FERNANDES BARBOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLINIO EDUARDO BARBOSA CARVALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOVELINO GONCALVES MUNIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDOSO ANDRADE TRANSPORTE LTDA ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDSON CAPANEMA BEZERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPANEMA TRANSPORTES EIRELI - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINDOSMAR ABADIO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARIA TRANSPORTES EIRELI - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIANO APARECIDO DE ANDRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ALTAIR RODRIGUES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVEIRA DIESEL TRANSPORTES EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAULO MACHADO DE ARAUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.M. TRANSPORTES EIRELI - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDER JORGE CAMPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIO MAURO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE DOS SANTOS LUIZ BRANDAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADEMAR FERREIRA BATISTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVALCI JOSE VIEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATR AGENCIAMENTO TRANSPORTES RODOVIARIOS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ROBERT VILELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ROBERT VILELA CPF 691 373 826 91 - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDNEY NUNES SOARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S N TRANSPORTADORA EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELTON APARECIDO CACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL LUIZ DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDJ TRANSPORTES RODOVIARIOS LTDA ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL FERNANDES DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL FERNANDES DA SILVA EIRELI - ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO CESAR DE ANDRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALMIR CARDOSO CIPRIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICOLAU EDUARDO ALMEIDA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORIVAR GOMES XAVIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS FERNANDES MOREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARRUA TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDO EDSON JACINTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCAS MOISES MUNERATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAO PAULO SILVA DOS SANTOS PICANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAQUIM ROBERTO DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMARO MANOEL SILVA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIO PEREIRA DE AQUINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALMIR FRANCISCO PINTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDERSON PINTO COELHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURICIO BATISTA DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERCIMONDES LEMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTADORA TRES REIS LTDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO SERGIO BRAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEUBER MARTINS RIBEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALTER APARECIDO MARTINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAYLLA TRANSPORTES - EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESAR DOS REIS ROQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTHUR DYEGO DE ARAUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAO LUIZ DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLODOALDO CRISTINO DE BARCELOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KASSIO FLORA MACHADO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELIO CARLOS DE ASSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIKON RODRIGO TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEANDRO CESAR NOBRE DA SILVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEVERSON HUMBERTO DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENEAS ELIAS DA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTOR ALEXANDRE LINCES E SILVA</t>
   </si>
 </sst>
 </file>
@@ -142,15 +721,17 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96:D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,922 +749,2146 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>28803951865</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>27753822829</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1004516169</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>27911580812</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>17419920877</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>18584622829</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>28865614870</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>35801793810</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>35243885827</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>30578823829</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>34096211800</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>26478828867</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>27644240861</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>11842420895</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>11801334803</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>34090595800</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>29946876825</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>6415272845</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>32007145812</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>99231590863</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>16950328885</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>31141429829</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1325404870</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>86688723620</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>22278483838</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>7462043882</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>913139882</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>9434803888</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>35143664896</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>11240922850</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>32288961880</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>42478367904</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>35539131851</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>30753433826</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>22110424818</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>39667747808</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>35826431822</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>31344630839</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>25077419884</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>36863742420</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>29626812800</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>45275516800</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>30072444800</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>11360333860</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>36815971899</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>12414125888</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>17700169888</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>36516540870</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>34546650</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>15568713847</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>29795564838</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>88645231468</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>16819833890</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>41208679864</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>32415795810</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>21824066899</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>30047680890</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>4237771490</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>25426757836</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>27139962871</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>64831205400</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>32637419857</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>40497561883</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>37045443889</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>21473475821</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>40908139802</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1736424386</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>74693450359</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>91240085249</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>14610692899</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>31687671826</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>8573691808</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>27167067865</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>21787111890</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>13641844860</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>60049120182</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>12607663814</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>22759119874</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>16062575878</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>3905423693</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>17095553866</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>22676079808</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>21793814848</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>21356044883</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>58327061615</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>25303489876</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>38674385877</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>6282213800</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>49708147591</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>13949401814</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>22479246892</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>29219976811</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>60656751649</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>39175923807</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>31422464873</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>35279722855</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>20709544120</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>5564722680</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>31147743851</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>61003255604</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="A102" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>1319402607</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>73488887634</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="A104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>91115140604</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>8536020695</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>67156533649</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>8479335637</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>933190611</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>8319943639</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>7089106616</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>59502932668</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>84730064615</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>74525271604</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>16738217153</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>78585422653</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>3569811697</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>45962529634</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>79974880149</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>5559562882</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>80133096653</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>69137382691</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>5895205631</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>3642045677</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>54093155968</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>3569541614</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>8388965611</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>62926608187</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>57242585600</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>75480778668</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>92208797604</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>6203525669</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>10181743620</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>83410619291</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>94794820615</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>81541236491</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>66812097691</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>63491818672</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>3249658693</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="A139" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>53410050159</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>75535688649</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>85362301691</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>4489728670</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>46934057600</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>48519006604</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>9207670607</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>4712378689</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>79971504120</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>3956103629</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>95226427620</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>4059008990</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>80760740615</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>611869616</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>7620010467</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>9959824659</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1"/>
@@ -1558,6 +3363,234 @@
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
     </row>
     <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
